--- a/Data/survivalCount.xlsx
+++ b/Data/survivalCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alistairseddon/Library/Mobile Documents/com~apple~CloudDocs/BIO201_Rscripts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2F31F9-BB00-A24F-A9AC-EE7EC4298B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC019FC-74AF-A94D-BA1A-2BDCB9FCCF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="960" windowWidth="24700" windowHeight="14500" xr2:uid="{A406610A-7883-6D42-9C88-2CC35BE649BE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="92">
   <si>
     <t>sample_code</t>
   </si>
@@ -92,18 +92,9 @@
     <t>Susanne</t>
   </si>
   <si>
-    <t>AG</t>
-  </si>
-  <si>
     <t>male </t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>HB</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>TS</t>
   </si>
   <si>
-    <t>total </t>
-  </si>
-  <si>
     <t>G1_28_A_005_(2F)</t>
   </si>
   <si>
@@ -252,6 +240,75 @@
   </si>
   <si>
     <t>G5_28_A_005_M1</t>
+  </si>
+  <si>
+    <t>G5_28_A_135_M2</t>
+  </si>
+  <si>
+    <t>G5_28_B_005_M1</t>
+  </si>
+  <si>
+    <t>G5_28_B_005_M5</t>
+  </si>
+  <si>
+    <t>G5_28_B_005_M4</t>
+  </si>
+  <si>
+    <t>G5_28_A_005_M2</t>
+  </si>
+  <si>
+    <t>2020_10_02</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>G5_24_B_015</t>
+  </si>
+  <si>
+    <t>G5_24_B_005</t>
+  </si>
+  <si>
+    <t>G4_24_B_015</t>
+  </si>
+  <si>
+    <t>G4_24_B_005</t>
+  </si>
+  <si>
+    <t>G7_24_B_005</t>
+  </si>
+  <si>
+    <t>G6_24_B_005</t>
+  </si>
+  <si>
+    <t>G7_24_B_015</t>
+  </si>
+  <si>
+    <t>G6_24_B_015</t>
+  </si>
+  <si>
+    <t>G4_24_B_135</t>
+  </si>
+  <si>
+    <t>G7_24_B_045</t>
+  </si>
+  <si>
+    <t>G4_24_B_045</t>
+  </si>
+  <si>
+    <t>G7_24_B_135</t>
+  </si>
+  <si>
+    <t>G5_24_B_135</t>
+  </si>
+  <si>
+    <t>G5_24_B_045</t>
+  </si>
+  <si>
+    <t>G6_24_B_045</t>
+  </si>
+  <si>
+    <t>G6_24_B_135</t>
   </si>
 </sst>
 </file>
@@ -639,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7251EBE-1C80-5842-8CC9-9BC8773A276E}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91:H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -678,19 +735,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
@@ -702,19 +759,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
@@ -726,7 +783,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -750,7 +807,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -774,7 +831,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -798,7 +855,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -822,7 +879,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -846,7 +903,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -870,7 +927,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -894,7 +951,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -918,7 +975,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
@@ -942,7 +999,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -966,7 +1023,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
@@ -990,7 +1047,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1014,7 +1071,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -1038,7 +1095,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1062,7 +1119,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
@@ -1086,7 +1143,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1110,7 +1167,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
@@ -1134,7 +1191,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1158,7 +1215,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -1182,7 +1239,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1206,7 +1263,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
@@ -1230,7 +1287,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -1254,7 +1311,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
@@ -1278,7 +1335,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1302,7 +1359,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
@@ -1326,7 +1383,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -1350,7 +1407,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
@@ -1374,7 +1431,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -1398,7 +1455,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>8</v>
@@ -1422,7 +1479,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -1446,19 +1503,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
@@ -1470,19 +1527,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
@@ -1494,19 +1551,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
@@ -1518,19 +1575,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
@@ -1542,19 +1599,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
@@ -1566,19 +1623,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
@@ -1590,16 +1647,16 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
@@ -1614,16 +1671,16 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>10</v>
@@ -1638,7 +1695,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>8</v>
@@ -1647,13 +1704,13 @@
         <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
@@ -1664,16 +1721,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C43" s="3">
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
@@ -1688,7 +1745,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>8</v>
@@ -1697,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
@@ -1712,7 +1769,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -1721,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>10</v>
@@ -1736,7 +1793,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>8</v>
@@ -1745,13 +1802,13 @@
         <v>21</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
@@ -1762,7 +1819,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -1771,7 +1828,7 @@
         <v>23</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -1786,20 +1843,20 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>11</v>
@@ -1810,20 +1867,20 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
@@ -1834,23 +1891,23 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -1858,23 +1915,23 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -1882,23 +1939,23 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="3">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -1906,23 +1963,23 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="3">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -1930,47 +1987,45 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -1978,23 +2033,23 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="3">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -2002,23 +2057,23 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="3">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -2032,10 +2087,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -2056,10 +2111,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>10</v>
@@ -2080,10 +2135,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>10</v>
@@ -2104,10 +2159,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>10</v>
@@ -2128,17 +2183,17 @@
         <v>8</v>
       </c>
       <c r="C62" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -2152,17 +2207,17 @@
         <v>12</v>
       </c>
       <c r="C63" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -2173,12 +2228,14 @@
         <v>66</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E64" s="3" t="s">
         <v>10</v>
       </c>
@@ -2192,21 +2249,23 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -2214,21 +2273,23 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C66" s="3">
-        <v>4</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -2239,12 +2300,14 @@
         <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3">
-        <v>7</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E67" s="3" t="s">
         <v>10</v>
       </c>
@@ -2258,21 +2321,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="3">
-        <v>10</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G68" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
@@ -2280,21 +2344,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C69" s="3">
-        <v>4</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G69" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -2302,21 +2367,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G70" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -2324,21 +2390,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="3">
-        <v>5</v>
-      </c>
-      <c r="D71" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G71" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -2346,21 +2413,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="3">
-        <v>9</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G72" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -2368,21 +2436,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="3">
-        <v>0</v>
-      </c>
-      <c r="D73" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G73" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -2390,21 +2459,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G74" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -2412,21 +2482,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="3">
-        <v>9</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G75" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -2440,15 +2511,16 @@
         <v>12</v>
       </c>
       <c r="C76" s="3">
-        <v>7</v>
-      </c>
-      <c r="D76" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G76" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -2456,21 +2528,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="3">
-        <v>25</v>
-      </c>
-      <c r="D77" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G77" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -2478,21 +2551,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="3">
-        <v>26</v>
-      </c>
-      <c r="D78" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="3"/>
+        <v>74</v>
+      </c>
       <c r="G78" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -2500,21 +2574,23 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="3">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -2522,27 +2598,1021 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="3">
+      <c r="B84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="3">
+        <v>14</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="3">
+        <v>6</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="3">
+        <v>12</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="3">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="3">
+        <v>7</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="3">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="3">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="3">
+        <v>4</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="3">
         <v>2</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="D101" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="3">
+        <v>2</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="3">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="3">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="3">
+        <v>21</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="3">
+        <v>16</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="3">
+        <v>19</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="3">
+        <v>9</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="3">
+        <v>18</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="3">
+        <v>11</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="3">
+        <v>14</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="3">
+        <v>15</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="3">
+        <v>9</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="3">
+        <v>7</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="3">
+        <v>4</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="3">
+        <v>13</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="3">
+        <v>5</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="3">
+        <v>7</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="3">
+        <v>8</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A68:H91">
+    <sortCondition ref="A68:A91"/>
+    <sortCondition ref="B68:B91"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>